--- a/2024 文献目录.xlsx
+++ b/2024 文献目录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SEU\# 科研学习\文献阅读\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\文献阅读\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6447C603-1944-4714-A6F7-DB627FA380DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60523B26-32B6-40C8-A6CF-FFF0B7297557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22575" yWindow="2970" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="渲染" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Perceptual Requirements for World-Locked Rendering in AR and VR
 AR和VR中世界锁定渲染的感知需求</t>
@@ -51,6 +51,25 @@
   </si>
   <si>
     <t>把原来独立的后处理合并到了渲染中，以达到减小开销的目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR-NeRF: High-Fidelity Virtualized Walkable Spaces
+VR-NeRF：高保真虚拟化步行空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rendered Tile Reuse Scheme Based on FoV Prediction for MEC-Assisted Wireless VR Service
+MEC辅助无线VR服务中基于FoV预测的渲染图块重用方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多摄像机建模真实场景
+IDEA：三维图像分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染跟网络很容易搭边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -434,8 +453,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2024 文献目录.xlsx
+++ b/2024 文献目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\文献阅读\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60523B26-32B6-40C8-A6CF-FFF0B7297557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4968048-51CA-4DB8-935D-4DAA890717D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22575" yWindow="2970" windowWidth="16455" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="2220" windowWidth="14610" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="渲染" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -122,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,6 +142,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +433,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -462,10 +476,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/2024 文献目录.xlsx
+++ b/2024 文献目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\文献阅读\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4968048-51CA-4DB8-935D-4DAA890717D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1392B86-5AFE-4785-9AFB-EB13C17F408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="2220" windowWidth="14610" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="渲染" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Perceptual Requirements for World-Locked Rendering in AR and VR
 AR和VR中世界锁定渲染的感知需求</t>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WLR似乎是个新概念
 图表看不明白</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +66,28 @@
   </si>
   <si>
     <t>渲染跟网络很容易搭边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹宇可以借鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rendering Perceived Terrain Stiffness in VR Via Preload Variation Against Body-Weight
+通过针对体重的预载变化在 VR 中渲染感知的地形刚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foveated rendering: A state-of-the-art survey
+注视点渲染:最先进的调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -448,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
@@ -456,31 +474,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
